--- a/daftar.xlsx
+++ b/daftar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\Katalon Studio\ACCBid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intan\git\acctesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,13 +89,13 @@
     <t>dirgantaraaa</t>
   </si>
   <si>
-    <t>fieldempty2</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
     <t>dirgantara@vimail24.com</t>
+  </si>
+  <si>
+    <t>hapusisian</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>8122977998</v>
@@ -570,12 +570,12 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/daftar.xlsx
+++ b/daftar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t xml:space="preserve">namalengkap </t>
   </si>
@@ -89,13 +89,22 @@
     <t>dirgantaraaa</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>dirgantara@vimail24.com</t>
   </si>
   <si>
-    <t>hapusisian</t>
+    <t>hapusnama</t>
+  </si>
+  <si>
+    <t>hapusemail</t>
+  </si>
+  <si>
+    <t>hapusnomor</t>
+  </si>
+  <si>
+    <t>hapuspass</t>
+  </si>
+  <si>
+    <t>hapuspass2</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +564,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>8122977998</v>
@@ -570,12 +579,99 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>8122977998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>8122977998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>8122977998</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>8122977998</v>
+      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -585,6 +681,10 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
